--- a/src/main/resources/places/city_parks.xlsx
+++ b/src/main/resources/places/city_parks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t xml:space="preserve">Парк имени Первого президента Республики Казахстан</t>
   </si>
@@ -53,6 +53,240 @@
   </si>
   <si>
     <t xml:space="preserve">43.306036, 76.949618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк им. 28 гвардейцев-панфиловцев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.258675, 76.953177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Центральный Парк Культуры и Отдыха г. Алматы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.261779, 76.969051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Центральный парк культуры и отдыха г. Алматы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.261319, 76.965858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мир фантазий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.240002, 76.918163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кок-Тобе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.244822, 76.959418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восточный Парк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.258939, 76.963051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Терренкур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.224970, 76.966743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк фонда первого президента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.232777, 76.944886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк им. М. К. Ганди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.243781, 76.897533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк Карагайлы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.249276, 76.936729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.222457, 76.905889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.225997, 76.913368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сквер им. Ахмета Байтурсынова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.247454, 76.927525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк культуры и отдыха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.244737, 76.945087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esentai Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.220575, 76.930099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.254498, 76.903257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.226935, 76.854813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк Хамита Ергали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.226292, 76.926240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк Гульдер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.300924, 76.923127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сквер на Жангельдина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.292334, 76.955977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">парк имени С. Сейфуллина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.336619, 76.940607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сквер Азтм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.251776, 76.892869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сквер на площади Астана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.253855, 76.943356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монумент Желтоксан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.238616, 76.941722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Биокомбинат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.242652, 76.913401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парк у Дворца школьников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.238708, 76.958296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сквер имени Мукагали Макатаева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.263044, 76.937747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПКИО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.242100, 76.937194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">парк Желтоксан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.331252, 76.985899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">парк Alibi City Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.193669, 76.857988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Балыкты Булак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.248000, 77.015000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Абайская Дубовая Аллея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.239542, 76.904275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сквер Жас Канат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.229393, 76.922458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кок-Жайляу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.142219, 77.004088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.264413, 76.929120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">парк Халык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.314441, 76.855807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аллея спасателей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.251712, 76.915889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.331537, 76.998892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlemPark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.203983, 76.791060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сквер Маяк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.336362, 76.993743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.336504, 76.953158</t>
   </si>
 </sst>
 </file>
@@ -62,11 +296,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +317,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,8 +366,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,71 +396,522 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="79.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
